--- a/CASEN-COVID19.xlsx
+++ b/CASEN-COVID19.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t xml:space="preserve">comuna</t>
   </si>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">total_tamano_vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">TarapacÃ¡</t>
+    <t xml:space="preserve">Tarapaca</t>
   </si>
   <si>
     <t xml:space="preserve">Iquique</t>
@@ -371,9 +371,6 @@
     <t xml:space="preserve">Rio Hurtado</t>
   </si>
   <si>
-    <t xml:space="preserve">ValparaÃ­so</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valparaiso</t>
   </si>
   <si>
@@ -482,7 +479,7 @@
     <t xml:space="preserve">Villa Alemana</t>
   </si>
   <si>
-    <t xml:space="preserve">Oâ€™Higgins</t>
+    <t xml:space="preserve">OHiggins</t>
   </si>
   <si>
     <t xml:space="preserve">Rancagua</t>
@@ -674,7 +671,7 @@
     <t xml:space="preserve">Yerbas Buenas</t>
   </si>
   <si>
-    <t xml:space="preserve">BiobÃ­o</t>
+    <t xml:space="preserve">Biobio</t>
   </si>
   <si>
     <t xml:space="preserve">Concepcion</t>
@@ -776,7 +773,7 @@
     <t xml:space="preserve">Alto Biobio</t>
   </si>
   <si>
-    <t xml:space="preserve">AraucanÃ­a</t>
+    <t xml:space="preserve">Araucania</t>
   </si>
   <si>
     <t xml:space="preserve">Temuco</t>
@@ -953,13 +950,10 @@
     <t xml:space="preserve">San Pablo</t>
   </si>
   <si>
-    <t xml:space="preserve">AysÃ©n</t>
+    <t xml:space="preserve">Aysen</t>
   </si>
   <si>
     <t xml:space="preserve">Coyhaique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aysen</t>
   </si>
   <si>
     <t xml:space="preserve">Cisnes</t>
@@ -1145,7 +1139,7 @@
     <t xml:space="preserve">Penaflor</t>
   </si>
   <si>
-    <t xml:space="preserve">Los RÃ­os</t>
+    <t xml:space="preserve">LosRios</t>
   </si>
   <si>
     <t xml:space="preserve">Valdivia</t>
@@ -1193,7 +1187,7 @@
     <t xml:space="preserve">Putre</t>
   </si>
   <si>
-    <t xml:space="preserve">Ã‘uble</t>
+    <t xml:space="preserve">Nuble</t>
   </si>
   <si>
     <t xml:space="preserve">Chillan</t>
@@ -1844,7 +1838,7 @@
         <v>223463</v>
       </c>
       <c r="F2" t="n">
-        <v>58</v>
+        <v>951</v>
       </c>
       <c r="G2" t="n">
         <v>563125.617063492</v>
@@ -2083,7 +2077,7 @@
         <v>129999</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>591</v>
       </c>
       <c r="G3" t="n">
         <v>428374.130737135</v>
@@ -2322,7 +2316,7 @@
         <v>17395</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
         <v>441162.162162162</v>
@@ -2800,7 +2794,7 @@
         <v>3000</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
         <v>351727.272727273</v>
@@ -3039,7 +3033,7 @@
         <v>5958</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G7" t="n">
         <v>466473.684210526</v>
@@ -3278,7 +3272,7 @@
         <v>425725</v>
       </c>
       <c r="F8" t="n">
-        <v>261</v>
+        <v>1243</v>
       </c>
       <c r="G8" t="n">
         <v>630309.854074542</v>
@@ -3517,7 +3511,7 @@
         <v>14776</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="G9" t="n">
         <v>455348.484848485</v>
@@ -3756,7 +3750,7 @@
         <v>1746</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
         <v>488976.19047619</v>
@@ -3995,7 +3989,7 @@
         <v>13657</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
         <v>490075</v>
@@ -4234,7 +4228,7 @@
         <v>190336</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="G12" t="n">
         <v>673088.961267606</v>
@@ -4473,7 +4467,7 @@
         <v>10434</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>494232.558139535</v>
@@ -4712,7 +4706,7 @@
         <v>28079</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>538416.666666667</v>
@@ -4951,7 +4945,7 @@
         <v>6814</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="G15" t="n">
         <v>532841.463414634</v>
@@ -5190,7 +5184,7 @@
         <v>171766</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>572828.054298643</v>
@@ -5429,7 +5423,7 @@
         <v>19426</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>474212.765957447</v>
@@ -5668,7 +5662,7 @@
         <v>14312</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
         <v>431875</v>
@@ -6146,7 +6140,7 @@
         <v>14358</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>660835.714285714</v>
@@ -6385,7 +6379,7 @@
         <v>57009</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
         <v>487922.323129252</v>
@@ -6863,7 +6857,7 @@
         <v>7681</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>420875</v>
@@ -7102,7 +7096,7 @@
         <v>11264</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>482041.666666667</v>
@@ -7341,7 +7335,7 @@
         <v>249656</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="G25" t="n">
         <v>466381.303116147</v>
@@ -7580,7 +7574,7 @@
         <v>256735</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G26" t="n">
         <v>415901.694316436</v>
@@ -7819,7 +7813,7 @@
         <v>11791</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
         <v>411876.712328767</v>
@@ -8536,7 +8530,7 @@
         <v>29741</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
         <v>369576.217948718</v>
@@ -8775,7 +8769,7 @@
         <v>32801</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
         <v>413387.387387387</v>
@@ -9014,7 +9008,7 @@
         <v>9546</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>349389.278688525</v>
@@ -9492,7 +9486,7 @@
         <v>29110</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
         <v>404701.492537313</v>
@@ -9731,7 +9725,7 @@
         <v>121269</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>394903.65535248</v>
@@ -9970,7 +9964,7 @@
         <v>13884</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
         <v>342112.903225806</v>
@@ -10209,7 +10203,7 @@
         <v>32527</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>298846.153846154</v>
@@ -10448,7 +10442,7 @@
         <v>12165</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
         <v>371549.6</v>
@@ -10687,7 +10681,7 @@
         <v>4372</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>288961.538461538</v>
@@ -10920,13 +10914,13 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" t="n">
         <v>315732</v>
       </c>
       <c r="F40" t="n">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="G40" t="n">
         <v>443029.157175399</v>
@@ -11159,13 +11153,13 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" t="n">
         <v>29170</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G41" t="n">
         <v>367911.111111111</v>
@@ -11398,13 +11392,13 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" t="n">
         <v>45889</v>
       </c>
       <c r="F42" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
         <v>576827.540816327</v>
@@ -11637,13 +11631,13 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" t="n">
         <v>20071</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
         <v>297500</v>
@@ -11876,13 +11870,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" t="n">
         <v>36135</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G44" t="n">
         <v>494694.915254237</v>
@@ -12115,13 +12109,13 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" t="n">
         <v>361371</v>
       </c>
       <c r="F45" t="n">
-        <v>103</v>
+        <v>476</v>
       </c>
       <c r="G45" t="n">
         <v>621193.717277487</v>
@@ -12354,13 +12348,13 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="n">
         <v>68093</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>465415.282392027</v>
@@ -12593,13 +12587,13 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" t="n">
         <v>16482</v>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G47" t="n">
         <v>317717.391304348</v>
@@ -12832,13 +12826,13 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" t="n">
         <v>11263</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G48" t="n">
         <v>420970.588235294</v>
@@ -13071,13 +13065,13 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49" t="n">
         <v>20643</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G49" t="n">
         <v>338827.160493827</v>
@@ -13310,13 +13304,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" t="n">
         <v>37739</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G50" t="n">
         <v>372195.402298851</v>
@@ -13549,13 +13543,13 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" t="n">
         <v>20663</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G51" t="n">
         <v>398952.380952381</v>
@@ -13788,13 +13782,13 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" t="n">
         <v>6201</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
         <v>435021.276595745</v>
@@ -14027,13 +14021,13 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" t="n">
         <v>10558</v>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
         <v>362197.530864198</v>
@@ -14266,7 +14260,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" t="n">
         <v>7994</v>
@@ -14505,13 +14499,13 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" t="n">
         <v>97572</v>
       </c>
       <c r="F55" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G55" t="n">
         <v>391606.896551724</v>
@@ -14744,13 +14738,13 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" t="n">
         <v>53591</v>
       </c>
       <c r="F56" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G56" t="n">
         <v>389181.034482759</v>
@@ -14983,13 +14977,13 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E57" t="n">
         <v>19099</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
         <v>353854.838709677</v>
@@ -15222,13 +15216,13 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" t="n">
         <v>25321</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G58" t="n">
         <v>323061.425</v>
@@ -15461,13 +15455,13 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" t="n">
         <v>23490</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
         <v>339226.19047619</v>
@@ -15700,13 +15694,13 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" t="n">
         <v>96761</v>
       </c>
       <c r="F60" t="n">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="G60" t="n">
         <v>347913.215873016</v>
@@ -15939,13 +15933,13 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" t="n">
         <v>15174</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G61" t="n">
         <v>611302.325581395</v>
@@ -16178,13 +16172,13 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" t="n">
         <v>25357</v>
       </c>
       <c r="F62" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G62" t="n">
         <v>445295.081967213</v>
@@ -16417,13 +16411,13 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" t="n">
         <v>17742</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G63" t="n">
         <v>324457.142857143</v>
@@ -16656,13 +16650,13 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" t="n">
         <v>14338</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G64" t="n">
         <v>385217.782608696</v>
@@ -16895,13 +16889,13 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" t="n">
         <v>11934</v>
       </c>
       <c r="F65" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G65" t="n">
         <v>500362.31884058</v>
@@ -17134,13 +17128,13 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" t="n">
         <v>83494</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="G66" t="n">
         <v>481463.798994975</v>
@@ -17373,13 +17367,13 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" t="n">
         <v>15213</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G67" t="n">
         <v>304277.777777778</v>
@@ -17612,13 +17606,13 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" t="n">
         <v>26533</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G68" t="n">
         <v>363306.666666667</v>
@@ -17851,13 +17845,13 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E69" t="n">
         <v>7633</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
         <v>426796.341463415</v>
@@ -18090,13 +18084,13 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" t="n">
         <v>17645</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
         <v>319876.543209877</v>
@@ -18329,13 +18323,13 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" t="n">
         <v>16367</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G71" t="n">
         <v>328932.584269663</v>
@@ -18568,13 +18562,13 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E72" t="n">
         <v>167085</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="G72" t="n">
         <v>533063.51039261</v>
@@ -18807,13 +18801,13 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E73" t="n">
         <v>49931</v>
       </c>
       <c r="F73" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="G73" t="n">
         <v>341420.382165605</v>
@@ -19046,13 +19040,13 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E74" t="n">
         <v>19266</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G74" t="n">
         <v>407865.384615385</v>
@@ -19285,13 +19279,13 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" t="n">
         <v>139310</v>
       </c>
       <c r="F75" t="n">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G75" t="n">
         <v>472892.307692308</v>
@@ -19518,19 +19512,19 @@
         <v>6101</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" t="n">
         <v>265211</v>
       </c>
       <c r="F76" t="n">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="G76" t="n">
         <v>454380.316587678</v>
@@ -19757,19 +19751,19 @@
         <v>6102</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" t="n">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E77" t="n">
         <v>14096</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
         <v>349681.554455446</v>
@@ -19996,19 +19990,19 @@
         <v>6103</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" t="n">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" t="n">
         <v>7831</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G78" t="n">
         <v>306800</v>
@@ -20235,19 +20229,19 @@
         <v>6104</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" t="n">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E79" t="n">
         <v>21263</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G79" t="n">
         <v>389978.021978022</v>
@@ -20474,19 +20468,19 @@
         <v>6105</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" t="n">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E80" t="n">
         <v>22700</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G80" t="n">
         <v>420644.230769231</v>
@@ -20713,19 +20707,19 @@
         <v>6106</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" t="n">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E81" t="n">
         <v>36504</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G81" t="n">
         <v>386790.322580645</v>
@@ -20952,19 +20946,19 @@
         <v>6107</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" t="n">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" t="n">
         <v>26749</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G82" t="n">
         <v>317836.06557377</v>
@@ -21191,19 +21185,19 @@
         <v>6108</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" t="n">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" t="n">
         <v>59913</v>
       </c>
       <c r="F83" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G83" t="n">
         <v>630477.197802198</v>
@@ -21430,19 +21424,19 @@
         <v>6109</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" t="n">
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E84" t="n">
         <v>14163</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>323350.515463918</v>
@@ -21669,19 +21663,19 @@
         <v>6110</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E85" t="n">
         <v>27462</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G85" t="n">
         <v>388440.490797546</v>
@@ -21908,19 +21902,19 @@
         <v>6111</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" t="n">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E86" t="n">
         <v>14624</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G86" t="n">
         <v>371623.62</v>
@@ -22147,19 +22141,19 @@
         <v>6112</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" t="n">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E87" t="n">
         <v>14952</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
         <v>339266.055045872</v>
@@ -22386,19 +22380,19 @@
         <v>6113</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" t="n">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E88" t="n">
         <v>20743</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
         <v>338891.891891892</v>
@@ -22625,19 +22619,19 @@
         <v>6114</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" t="n">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" t="n">
         <v>13877</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
         <v>512741.935483871</v>
@@ -22864,19 +22858,19 @@
         <v>6115</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C90" t="n">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E90" t="n">
         <v>63710</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G90" t="n">
         <v>345496.794871795</v>
@@ -23103,19 +23097,19 @@
         <v>6116</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" t="n">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E91" t="n">
         <v>30371</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
         <v>345533.461538462</v>
@@ -23342,19 +23336,19 @@
         <v>6117</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" t="n">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E92" t="n">
         <v>50617</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G92" t="n">
         <v>423261.410788382</v>
@@ -23581,19 +23575,19 @@
         <v>6201</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" t="n">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E93" t="n">
         <v>17882</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
         <v>377159.090909091</v>
@@ -23820,13 +23814,13 @@
         <v>6202</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" t="n">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E94" t="n">
         <v>3114</v>
@@ -24059,19 +24053,19 @@
         <v>6203</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" t="n">
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E95" t="n">
         <v>6765</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
         <v>325584.415584416</v>
@@ -24298,13 +24292,13 @@
         <v>6204</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" t="n">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E96" t="n">
         <v>7632</v>
@@ -24537,19 +24531,19 @@
         <v>6205</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" t="n">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" t="n">
         <v>6904</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
         <v>364500</v>
@@ -24776,19 +24770,19 @@
         <v>6206</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" t="n">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" t="n">
         <v>6349</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
         <v>312246.913580247</v>
@@ -25015,19 +25009,19 @@
         <v>6301</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" t="n">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E99" t="n">
         <v>78642</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G99" t="n">
         <v>389143.44494382</v>
@@ -25254,19 +25248,19 @@
         <v>6302</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" t="n">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100" t="n">
         <v>15925</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G100" t="n">
         <v>311698.113207547</v>
@@ -25493,19 +25487,19 @@
         <v>6303</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" t="n">
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E101" t="n">
         <v>37696</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
         <v>312343.558282209</v>
@@ -25732,19 +25726,19 @@
         <v>6304</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" t="n">
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E102" t="n">
         <v>7289</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
         <v>323414.634146341</v>
@@ -25971,19 +25965,19 @@
         <v>6305</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C103" t="n">
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E103" t="n">
         <v>19141</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G103" t="n">
         <v>344282.858585859</v>
@@ -26210,19 +26204,19 @@
         <v>6306</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" t="n">
         <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104" t="n">
         <v>13299</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
         <v>298102.304347826</v>
@@ -26449,19 +26443,19 @@
         <v>6307</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" t="n">
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E105" t="n">
         <v>11848</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
         <v>346300</v>
@@ -26688,19 +26682,19 @@
         <v>6308</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C106" t="n">
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106" t="n">
         <v>9164</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G106" t="n">
         <v>318702.97029703</v>
@@ -26927,13 +26921,13 @@
         <v>6309</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" t="n">
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E107" t="n">
         <v>3531</v>
@@ -27166,19 +27160,19 @@
         <v>6310</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C108" t="n">
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E108" t="n">
         <v>41096</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G108" t="n">
         <v>409506.493506494</v>
@@ -27405,19 +27399,19 @@
         <v>7101</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C109" t="n">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E109" t="n">
         <v>236724</v>
       </c>
       <c r="F109" t="n">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="G109" t="n">
         <v>450479.545595054</v>
@@ -27644,19 +27638,19 @@
         <v>7102</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E110" t="n">
         <v>50348</v>
       </c>
       <c r="F110" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G110" t="n">
         <v>468304.054054054</v>
@@ -27883,19 +27877,19 @@
         <v>7103</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" t="n">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E111" t="n">
         <v>9426</v>
       </c>
       <c r="F111" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
         <v>351447.76119403</v>
@@ -28122,13 +28116,13 @@
         <v>7104</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" t="n">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E112" t="n">
         <v>4206</v>
@@ -28361,19 +28355,19 @@
         <v>7105</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" t="n">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E113" t="n">
         <v>60000</v>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G113" t="n">
         <v>318597.56097561</v>
@@ -28600,19 +28594,19 @@
         <v>7106</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C114" t="n">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" t="n">
         <v>9083</v>
       </c>
       <c r="F114" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G114" t="n">
         <v>300734.17721519</v>
@@ -28839,19 +28833,19 @@
         <v>7107</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" t="n">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E115" t="n">
         <v>8601</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
         <v>305940.860215054</v>
@@ -29078,19 +29072,19 @@
         <v>7108</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C116" t="n">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E116" t="n">
         <v>14753</v>
       </c>
       <c r="F116" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G116" t="n">
         <v>320829.268292683</v>
@@ -29317,19 +29311,19 @@
         <v>7109</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C117" t="n">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E117" t="n">
         <v>46292</v>
       </c>
       <c r="F117" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G117" t="n">
         <v>247421.052631579</v>
@@ -29556,19 +29550,19 @@
         <v>7110</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C118" t="n">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E118" t="n">
         <v>9959</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G118" t="n">
         <v>309830.280701754</v>
@@ -29795,19 +29789,19 @@
         <v>7201</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C119" t="n">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E119" t="n">
         <v>44143</v>
       </c>
       <c r="F119" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G119" t="n">
         <v>364554.310559006</v>
@@ -30034,19 +30028,19 @@
         <v>7202</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" t="n">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E120" t="n">
         <v>9331</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
         <v>326491.525423729</v>
@@ -30273,19 +30267,19 @@
         <v>7203</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" t="n">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E121" t="n">
         <v>8092</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
         <v>325565.217391304</v>
@@ -30512,19 +30506,19 @@
         <v>7301</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="n">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E122" t="n">
         <v>163626</v>
       </c>
       <c r="F122" t="n">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="G122" t="n">
         <v>397107.316287879</v>
@@ -30751,19 +30745,19 @@
         <v>7302</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C123" t="n">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E123" t="n">
         <v>10222</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
         <v>430604.651162791</v>
@@ -30990,13 +30984,13 @@
         <v>7303</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" t="n">
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E124" t="n">
         <v>6989</v>
@@ -31229,19 +31223,19 @@
         <v>7304</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C125" t="n">
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E125" t="n">
         <v>49800</v>
       </c>
       <c r="F125" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G125" t="n">
         <v>371114.678899083</v>
@@ -31468,19 +31462,19 @@
         <v>7305</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" t="n">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E126" t="n">
         <v>11248</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G126" t="n">
         <v>317506.493506494</v>
@@ -31707,19 +31701,19 @@
         <v>7306</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C127" t="n">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E127" t="n">
         <v>16170</v>
       </c>
       <c r="F127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G127" t="n">
         <v>324695.652173913</v>
@@ -31946,19 +31940,19 @@
         <v>7307</v>
       </c>
       <c r="B128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C128" t="n">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E128" t="n">
         <v>19469</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
         <v>311461.538461538</v>
@@ -32185,19 +32179,19 @@
         <v>7308</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C129" t="n">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E129" t="n">
         <v>30850</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G129" t="n">
         <v>347720.27972028</v>
@@ -32424,13 +32418,13 @@
         <v>7309</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C130" t="n">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E130" t="n">
         <v>4381</v>
@@ -32663,19 +32657,19 @@
         <v>7401</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C131" t="n">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E131" t="n">
         <v>101073</v>
       </c>
       <c r="F131" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G131" t="n">
         <v>343779.091715976</v>
@@ -32902,19 +32896,19 @@
         <v>7402</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" t="n">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E132" t="n">
         <v>22565</v>
       </c>
       <c r="F132" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G132" t="n">
         <v>325676.056338028</v>
@@ -33141,19 +33135,19 @@
         <v>7403</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" t="n">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E133" t="n">
         <v>32810</v>
       </c>
       <c r="F133" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G133" t="n">
         <v>259817.391304348</v>
@@ -33380,19 +33374,19 @@
         <v>7404</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" t="n">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E134" t="n">
         <v>44544</v>
       </c>
       <c r="F134" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G134" t="n">
         <v>269540.145985401</v>
@@ -33619,19 +33613,19 @@
         <v>7405</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" t="n">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E135" t="n">
         <v>21071</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G135" t="n">
         <v>298389.649350649</v>
@@ -33858,19 +33852,19 @@
         <v>7406</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="n">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E136" t="n">
         <v>49451</v>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G136" t="n">
         <v>342571.428571429</v>
@@ -34097,19 +34091,19 @@
         <v>7407</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" t="n">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E137" t="n">
         <v>17512</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G137" t="n">
         <v>324633.655737705</v>
@@ -34336,19 +34330,19 @@
         <v>7408</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C138" t="n">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E138" t="n">
         <v>19200</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G138" t="n">
         <v>371859.154929577</v>
@@ -34575,19 +34569,19 @@
         <v>8101</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" t="n">
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E139" t="n">
         <v>238092</v>
       </c>
       <c r="F139" t="n">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="G139" t="n">
         <v>471121.010332951</v>
@@ -34814,19 +34808,19 @@
         <v>8102</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" t="n">
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E140" t="n">
         <v>125829</v>
       </c>
       <c r="F140" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G140" t="n">
         <v>394257.368794326</v>
@@ -35053,19 +35047,19 @@
         <v>8103</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C141" t="n">
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E141" t="n">
         <v>91180</v>
       </c>
       <c r="F141" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G141" t="n">
         <v>489464.806866953</v>
@@ -35292,19 +35286,19 @@
         <v>8104</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" t="n">
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E142" t="n">
         <v>11841</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G142" t="n">
         <v>296119.402985075</v>
@@ -35531,19 +35525,19 @@
         <v>8105</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" t="n">
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E143" t="n">
         <v>26201</v>
       </c>
       <c r="F143" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G143" t="n">
         <v>334125</v>
@@ -35770,19 +35764,19 @@
         <v>8106</v>
       </c>
       <c r="B144" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C144" t="n">
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E144" t="n">
         <v>45750</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G144" t="n">
         <v>360882.096069869</v>
@@ -36009,19 +36003,19 @@
         <v>8107</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C145" t="n">
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E145" t="n">
         <v>49865</v>
       </c>
       <c r="F145" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G145" t="n">
         <v>343451.674641148</v>
@@ -36248,19 +36242,19 @@
         <v>8108</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C146" t="n">
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E146" t="n">
         <v>145906</v>
       </c>
       <c r="F146" t="n">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G146" t="n">
         <v>570419.191919192</v>
@@ -36487,13 +36481,13 @@
         <v>8109</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" t="n">
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E147" t="n">
         <v>14779</v>
@@ -36726,19 +36720,19 @@
         <v>8110</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C148" t="n">
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E148" t="n">
         <v>158345</v>
       </c>
       <c r="F148" t="n">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="G148" t="n">
         <v>465020.989505247</v>
@@ -36965,19 +36959,19 @@
         <v>8111</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C149" t="n">
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E149" t="n">
         <v>58729</v>
       </c>
       <c r="F149" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G149" t="n">
         <v>404000</v>
@@ -37204,19 +37198,19 @@
         <v>8112</v>
       </c>
       <c r="B150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C150" t="n">
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E150" t="n">
         <v>97273</v>
       </c>
       <c r="F150" t="n">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="G150" t="n">
         <v>414207.505995204</v>
@@ -37443,19 +37437,19 @@
         <v>8201</v>
       </c>
       <c r="B151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C151" t="n">
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E151" t="n">
         <v>27100</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
         <v>343820.224719101</v>
@@ -37682,19 +37676,19 @@
         <v>8202</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C152" t="n">
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E152" t="n">
         <v>38679</v>
       </c>
       <c r="F152" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G152" t="n">
         <v>590350</v>
@@ -37921,19 +37915,19 @@
         <v>8203</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C153" t="n">
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E153" t="n">
         <v>37003</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G153" t="n">
         <v>382189.189189189</v>
@@ -38160,13 +38154,13 @@
         <v>8204</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C154" t="n">
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E154" t="n">
         <v>6330</v>
@@ -38399,19 +38393,19 @@
         <v>8205</v>
       </c>
       <c r="B155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C155" t="n">
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E155" t="n">
         <v>33892</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G155" t="n">
         <v>382603.686635945</v>
@@ -38638,19 +38632,19 @@
         <v>8206</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C156" t="n">
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E156" t="n">
         <v>22524</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
         <v>354750</v>
@@ -38877,13 +38871,13 @@
         <v>8207</v>
       </c>
       <c r="B157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C157" t="n">
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E157" t="n">
         <v>11019</v>
@@ -39116,19 +39110,19 @@
         <v>8301</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C158" t="n">
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E158" t="n">
         <v>218515</v>
       </c>
       <c r="F158" t="n">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="G158" t="n">
         <v>435221.480830671</v>
@@ -39355,19 +39349,19 @@
         <v>8302</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C159" t="n">
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E159" t="n">
         <v>4306</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G159" t="n">
         <v>419648.648648649</v>
@@ -39594,19 +39588,19 @@
         <v>8303</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C160" t="n">
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E160" t="n">
         <v>30725</v>
       </c>
       <c r="F160" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G160" t="n">
         <v>414435.185185185</v>
@@ -39833,19 +39827,19 @@
         <v>8304</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C161" t="n">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E161" t="n">
         <v>23873</v>
       </c>
       <c r="F161" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G161" t="n">
         <v>351485.294117647</v>
@@ -40072,19 +40066,19 @@
         <v>8305</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C162" t="n">
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E162" t="n">
         <v>31041</v>
       </c>
       <c r="F162" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G162" t="n">
         <v>336560.204301075</v>
@@ -40311,19 +40305,19 @@
         <v>8306</v>
       </c>
       <c r="B163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C163" t="n">
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E163" t="n">
         <v>27944</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G163" t="n">
         <v>404888.888888889</v>
@@ -40550,19 +40544,19 @@
         <v>8307</v>
       </c>
       <c r="B164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C164" t="n">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E164" t="n">
         <v>10429</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G164" t="n">
         <v>302321.428571429</v>
@@ -40789,13 +40783,13 @@
         <v>8308</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C165" t="n">
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E165" t="n">
         <v>4179</v>
@@ -41028,13 +41022,13 @@
         <v>8309</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C166" t="n">
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E166" t="n">
         <v>10032</v>
@@ -41267,19 +41261,19 @@
         <v>8310</v>
       </c>
       <c r="B167" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C167" t="n">
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E167" t="n">
         <v>3611</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
         <v>378541.666666667</v>
@@ -41506,19 +41500,19 @@
         <v>8311</v>
       </c>
       <c r="B168" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C168" t="n">
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E168" t="n">
         <v>14592</v>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G168" t="n">
         <v>322783.333333333</v>
@@ -41745,19 +41739,19 @@
         <v>8312</v>
       </c>
       <c r="B169" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C169" t="n">
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E169" t="n">
         <v>15205</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G169" t="n">
         <v>264528.571428571</v>
@@ -41984,19 +41978,19 @@
         <v>8313</v>
       </c>
       <c r="B170" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C170" t="n">
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E170" t="n">
         <v>22132</v>
       </c>
       <c r="F170" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G170" t="n">
         <v>389936.170212766</v>
@@ -42223,19 +42217,19 @@
         <v>8314</v>
       </c>
       <c r="B171" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C171" t="n">
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E171" t="n">
         <v>6775</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G171" t="n">
         <v>379142.857142857</v>
@@ -42462,19 +42456,19 @@
         <v>9101</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C172" t="n">
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E172" t="n">
         <v>302931</v>
       </c>
       <c r="F172" t="n">
-        <v>644</v>
+        <v>812</v>
       </c>
       <c r="G172" t="n">
         <v>507162.762081784</v>
@@ -42701,19 +42695,19 @@
         <v>9102</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173" t="n">
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E173" t="n">
         <v>25486</v>
       </c>
       <c r="F173" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G173" t="n">
         <v>427937.5</v>
@@ -42940,19 +42934,19 @@
         <v>9103</v>
       </c>
       <c r="B174" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C174" t="n">
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E174" t="n">
         <v>18055</v>
       </c>
       <c r="F174" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G174" t="n">
         <v>371868.852459016</v>
@@ -43179,13 +43173,13 @@
         <v>9104</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C175" t="n">
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E175" t="n">
         <v>7802</v>
@@ -43418,19 +43412,19 @@
         <v>9105</v>
       </c>
       <c r="B176" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C176" t="n">
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E176" t="n">
         <v>25446</v>
       </c>
       <c r="F176" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G176" t="n">
         <v>407931.548387097</v>
@@ -43657,19 +43651,19 @@
         <v>9106</v>
       </c>
       <c r="B177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C177" t="n">
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E177" t="n">
         <v>12633</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G177" t="n">
         <v>308396.825396825</v>
@@ -43896,19 +43890,19 @@
         <v>9107</v>
       </c>
       <c r="B178" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C178" t="n">
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E178" t="n">
         <v>15148</v>
       </c>
       <c r="F178" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G178" t="n">
         <v>422931.818181818</v>
@@ -44135,19 +44129,19 @@
         <v>9108</v>
       </c>
       <c r="B179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C179" t="n">
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E179" t="n">
         <v>40746</v>
       </c>
       <c r="F179" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G179" t="n">
         <v>460509.090909091</v>
@@ -44374,19 +44368,19 @@
         <v>9109</v>
       </c>
       <c r="B180" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C180" t="n">
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E180" t="n">
         <v>24739</v>
       </c>
       <c r="F180" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G180" t="n">
         <v>322250.739495798</v>
@@ -44613,19 +44607,19 @@
         <v>9110</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C181" t="n">
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E181" t="n">
         <v>6265</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G181" t="n">
         <v>388155.555555556</v>
@@ -44852,19 +44846,19 @@
         <v>9111</v>
       </c>
       <c r="B182" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C182" t="n">
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E182" t="n">
         <v>33777</v>
       </c>
       <c r="F182" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G182" t="n">
         <v>346913.364583333</v>
@@ -45091,19 +45085,19 @@
         <v>9112</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C183" t="n">
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E183" t="n">
         <v>82110</v>
       </c>
       <c r="F183" t="n">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="G183" t="n">
         <v>379010.961038961</v>
@@ -45330,19 +45324,19 @@
         <v>9113</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C184" t="n">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E184" t="n">
         <v>7223</v>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G184" t="n">
         <v>401753.846153846</v>
@@ -45569,19 +45563,19 @@
         <v>9114</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C185" t="n">
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E185" t="n">
         <v>26096</v>
       </c>
       <c r="F185" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G185" t="n">
         <v>381852.631578947</v>
@@ -45808,19 +45802,19 @@
         <v>9115</v>
       </c>
       <c r="B186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C186" t="n">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E186" t="n">
         <v>29782</v>
       </c>
       <c r="F186" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G186" t="n">
         <v>376828.84057971</v>
@@ -46047,19 +46041,19 @@
         <v>9116</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C187" t="n">
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E187" t="n">
         <v>12793</v>
       </c>
       <c r="F187" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="G187" t="n">
         <v>323282.608695652</v>
@@ -46286,13 +46280,13 @@
         <v>9117</v>
       </c>
       <c r="B188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C188" t="n">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E188" t="n">
         <v>15786</v>
@@ -46525,19 +46519,19 @@
         <v>9118</v>
       </c>
       <c r="B189" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C189" t="n">
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E189" t="n">
         <v>10055</v>
       </c>
       <c r="F189" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G189" t="n">
         <v>366115.384615385</v>
@@ -46764,19 +46758,19 @@
         <v>9119</v>
       </c>
       <c r="B190" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C190" t="n">
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E190" t="n">
         <v>30766</v>
       </c>
       <c r="F190" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G190" t="n">
         <v>267624.626984127</v>
@@ -47003,19 +46997,19 @@
         <v>9120</v>
       </c>
       <c r="B191" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C191" t="n">
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E191" t="n">
         <v>59103</v>
       </c>
       <c r="F191" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G191" t="n">
         <v>403467.734375</v>
@@ -47242,19 +47236,19 @@
         <v>9121</v>
       </c>
       <c r="B192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C192" t="n">
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E192" t="n">
         <v>12341</v>
       </c>
       <c r="F192" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G192" t="n">
         <v>320079.365079365</v>
@@ -47481,19 +47475,19 @@
         <v>9201</v>
       </c>
       <c r="B193" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C193" t="n">
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E193" t="n">
         <v>56058</v>
       </c>
       <c r="F193" t="n">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G193" t="n">
         <v>427595.905511811</v>
@@ -47720,19 +47714,19 @@
         <v>9202</v>
       </c>
       <c r="B194" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C194" t="n">
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E194" t="n">
         <v>26148</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G194" t="n">
         <v>334474.358974359</v>
@@ -47959,19 +47953,19 @@
         <v>9203</v>
       </c>
       <c r="B195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C195" t="n">
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E195" t="n">
         <v>18178</v>
       </c>
       <c r="F195" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G195" t="n">
         <v>379360.655737705</v>
@@ -48198,19 +48192,19 @@
         <v>9204</v>
       </c>
       <c r="B196" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C196" t="n">
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E196" t="n">
         <v>8458</v>
       </c>
       <c r="F196" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G196" t="n">
         <v>381409.836065574</v>
@@ -48437,19 +48431,19 @@
         <v>9205</v>
       </c>
       <c r="B197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C197" t="n">
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E197" t="n">
         <v>11049</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G197" t="n">
         <v>376982.142857143</v>
@@ -48676,19 +48670,19 @@
         <v>9206</v>
       </c>
       <c r="B198" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C198" t="n">
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E198" t="n">
         <v>7517</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>304876.712328767</v>
@@ -48915,19 +48909,19 @@
         <v>9207</v>
       </c>
       <c r="B199" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C199" t="n">
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E199" t="n">
         <v>10050</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G199" t="n">
         <v>397125</v>
@@ -49154,19 +49148,19 @@
         <v>9208</v>
       </c>
       <c r="B200" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C200" t="n">
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E200" t="n">
         <v>12188</v>
       </c>
       <c r="F200" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G200" t="n">
         <v>322688.524590164</v>
@@ -49393,19 +49387,19 @@
         <v>9209</v>
       </c>
       <c r="B201" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" t="n">
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E201" t="n">
         <v>10833</v>
       </c>
       <c r="F201" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G201" t="n">
         <v>373955.882352941</v>
@@ -49632,19 +49626,19 @@
         <v>9210</v>
       </c>
       <c r="B202" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C202" t="n">
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E202" t="n">
         <v>19314</v>
       </c>
       <c r="F202" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G202" t="n">
         <v>361877.358490566</v>
@@ -49871,19 +49865,19 @@
         <v>9211</v>
       </c>
       <c r="B203" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C203" t="n">
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E203" t="n">
         <v>35467</v>
       </c>
       <c r="F203" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G203" t="n">
         <v>322684.523809524</v>
@@ -50110,19 +50104,19 @@
         <v>10101</v>
       </c>
       <c r="B204" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C204" t="n">
         <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E204" t="n">
         <v>269398</v>
       </c>
       <c r="F204" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="G204" t="n">
         <v>467921.681304893</v>
@@ -50349,19 +50343,19 @@
         <v>10102</v>
       </c>
       <c r="B205" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C205" t="n">
         <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E205" t="n">
         <v>36744</v>
       </c>
       <c r="F205" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G205" t="n">
         <v>470433.518181818</v>
@@ -50588,13 +50582,13 @@
         <v>10104</v>
       </c>
       <c r="B206" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C206" t="n">
         <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E206" t="n">
         <v>12656</v>
@@ -50827,19 +50821,19 @@
         <v>10105</v>
       </c>
       <c r="B207" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C207" t="n">
         <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E207" t="n">
         <v>20223</v>
       </c>
       <c r="F207" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G207" t="n">
         <v>342687.5</v>
@@ -51066,19 +51060,19 @@
         <v>10106</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C208" t="n">
         <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E208" t="n">
         <v>17817</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G208" t="n">
         <v>396487.179487179</v>
@@ -51305,19 +51299,19 @@
         <v>10107</v>
       </c>
       <c r="B209" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C209" t="n">
         <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E209" t="n">
         <v>18621</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G209" t="n">
         <v>385602.941176471</v>
@@ -51544,19 +51538,19 @@
         <v>10108</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C210" t="n">
         <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E210" t="n">
         <v>14894</v>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G210" t="n">
         <v>402016.393442623</v>
@@ -51783,19 +51777,19 @@
         <v>10109</v>
       </c>
       <c r="B211" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C211" t="n">
         <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E211" t="n">
         <v>48620</v>
       </c>
       <c r="F211" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G211" t="n">
         <v>499472.081218274</v>
@@ -52022,19 +52016,19 @@
         <v>10201</v>
       </c>
       <c r="B212" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C212" t="n">
         <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E212" t="n">
         <v>47607</v>
       </c>
       <c r="F212" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G212" t="n">
         <v>528854.378378378</v>
@@ -52261,19 +52255,19 @@
         <v>10202</v>
       </c>
       <c r="B213" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C213" t="n">
         <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E213" t="n">
         <v>42458</v>
       </c>
       <c r="F213" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="G213" t="n">
         <v>355072.072072072</v>
@@ -52500,13 +52494,13 @@
         <v>10203</v>
       </c>
       <c r="B214" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C214" t="n">
         <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E214" t="n">
         <v>16013</v>
@@ -52739,13 +52733,13 @@
         <v>10204</v>
       </c>
       <c r="B215" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C215" t="n">
         <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E215" t="n">
         <v>4066</v>
@@ -52978,19 +52972,19 @@
         <v>10205</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C216" t="n">
         <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E216" t="n">
         <v>15069</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G216" t="n">
         <v>480947.368421053</v>
@@ -53217,13 +53211,13 @@
         <v>10206</v>
       </c>
       <c r="B217" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C217" t="n">
         <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E217" t="n">
         <v>4201</v>
@@ -53456,13 +53450,13 @@
         <v>10207</v>
       </c>
       <c r="B218" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C218" t="n">
         <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E218" t="n">
         <v>5543</v>
@@ -53695,19 +53689,19 @@
         <v>10208</v>
       </c>
       <c r="B219" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C219" t="n">
         <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E219" t="n">
         <v>29309</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
         <v>409838.709677419</v>
@@ -53934,19 +53928,19 @@
         <v>10209</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C220" t="n">
         <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E220" t="n">
         <v>8783</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G220" t="n">
         <v>387970.149253731</v>
@@ -54173,13 +54167,13 @@
         <v>10210</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C221" t="n">
         <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E221" t="n">
         <v>8298</v>
@@ -54412,19 +54406,19 @@
         <v>10301</v>
       </c>
       <c r="B222" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C222" t="n">
         <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E222" t="n">
         <v>173410</v>
       </c>
       <c r="F222" t="n">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="G222" t="n">
         <v>431263.427295918</v>
@@ -54651,19 +54645,19 @@
         <v>10302</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C223" t="n">
         <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E223" t="n">
         <v>9192</v>
       </c>
       <c r="F223" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G223" t="n">
         <v>404695.12195122</v>
@@ -54890,19 +54884,19 @@
         <v>10303</v>
       </c>
       <c r="B224" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C224" t="n">
         <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E224" t="n">
         <v>21080</v>
       </c>
       <c r="F224" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G224" t="n">
         <v>409531.914893617</v>
@@ -55129,19 +55123,19 @@
         <v>10304</v>
       </c>
       <c r="B225" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C225" t="n">
         <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E225" t="n">
         <v>11787</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G225" t="n">
         <v>376028.8875</v>
@@ -55368,19 +55362,19 @@
         <v>10305</v>
       </c>
       <c r="B226" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C226" t="n">
         <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E226" t="n">
         <v>14275</v>
       </c>
       <c r="F226" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G226" t="n">
         <v>434492.307692308</v>
@@ -55607,19 +55601,19 @@
         <v>10306</v>
       </c>
       <c r="B227" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C227" t="n">
         <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E227" t="n">
         <v>7639</v>
       </c>
       <c r="F227" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G227" t="n">
         <v>303638.29787234</v>
@@ -55846,19 +55840,19 @@
         <v>10307</v>
       </c>
       <c r="B228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C228" t="n">
         <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E228" t="n">
         <v>10553</v>
       </c>
       <c r="F228" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G228" t="n">
         <v>260896.315789474</v>
@@ -56085,19 +56079,19 @@
         <v>11101</v>
       </c>
       <c r="B229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C229" t="n">
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E229" t="n">
         <v>61210</v>
       </c>
       <c r="F229" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G229" t="n">
         <v>671945.342261905</v>
@@ -56324,13 +56318,13 @@
         <v>11201</v>
       </c>
       <c r="B230" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C230" t="n">
         <v>11</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E230" t="n">
         <v>25002</v>
@@ -56563,13 +56557,13 @@
         <v>11202</v>
       </c>
       <c r="B231" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C231" t="n">
         <v>11</v>
       </c>
       <c r="D231" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E231" t="n">
         <v>5828</v>
@@ -56802,13 +56796,13 @@
         <v>11301</v>
       </c>
       <c r="B232" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C232" t="n">
         <v>11</v>
       </c>
       <c r="D232" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E232" t="n">
         <v>3685</v>
@@ -57041,13 +57035,13 @@
         <v>11401</v>
       </c>
       <c r="B233" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C233" t="n">
         <v>11</v>
       </c>
       <c r="D233" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E233" t="n">
         <v>5121</v>
@@ -57280,13 +57274,13 @@
         <v>11402</v>
       </c>
       <c r="B234" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C234" t="n">
         <v>11</v>
       </c>
       <c r="D234" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E234" t="n">
         <v>2699</v>
@@ -57519,19 +57513,19 @@
         <v>12101</v>
       </c>
       <c r="B235" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C235" t="n">
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E235" t="n">
         <v>141984</v>
       </c>
       <c r="F235" t="n">
-        <v>581</v>
+        <v>968</v>
       </c>
       <c r="G235" t="n">
         <v>697499.031931069</v>
@@ -57758,19 +57752,19 @@
         <v>12301</v>
       </c>
       <c r="B236" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C236" t="n">
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E236" t="n">
         <v>7323</v>
       </c>
       <c r="F236" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G236" t="n">
         <v>639867.469879518</v>
@@ -57997,19 +57991,19 @@
         <v>12401</v>
       </c>
       <c r="B237" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C237" t="n">
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E237" t="n">
         <v>23782</v>
       </c>
       <c r="F237" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G237" t="n">
         <v>456912.389830509</v>
@@ -58236,19 +58230,19 @@
         <v>13101</v>
       </c>
       <c r="B238" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C238" t="n">
         <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E238" t="n">
         <v>503147</v>
       </c>
       <c r="F238" t="n">
-        <v>608</v>
+        <v>4618</v>
       </c>
       <c r="G238" t="n">
         <v>663216.295366795</v>
@@ -58475,19 +58469,19 @@
         <v>13102</v>
       </c>
       <c r="B239" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C239" t="n">
         <v>13</v>
       </c>
       <c r="D239" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E239" t="n">
         <v>88956</v>
       </c>
       <c r="F239" t="n">
-        <v>66</v>
+        <v>758</v>
       </c>
       <c r="G239" t="n">
         <v>378304</v>
@@ -58714,19 +58708,19 @@
         <v>13103</v>
       </c>
       <c r="B240" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C240" t="n">
         <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E240" t="n">
         <v>142465</v>
       </c>
       <c r="F240" t="n">
-        <v>118</v>
+        <v>993</v>
       </c>
       <c r="G240" t="n">
         <v>387841.346153846</v>
@@ -58953,19 +58947,19 @@
         <v>13104</v>
       </c>
       <c r="B241" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C241" t="n">
         <v>13</v>
       </c>
       <c r="D241" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E241" t="n">
         <v>139195</v>
       </c>
       <c r="F241" t="n">
-        <v>98</v>
+        <v>1370</v>
       </c>
       <c r="G241" t="n">
         <v>397043.098039216</v>
@@ -59192,19 +59186,19 @@
         <v>13105</v>
       </c>
       <c r="B242" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C242" t="n">
         <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E242" t="n">
         <v>172000</v>
       </c>
       <c r="F242" t="n">
-        <v>145</v>
+        <v>1164</v>
       </c>
       <c r="G242" t="n">
         <v>442352.713178295</v>
@@ -59431,19 +59425,19 @@
         <v>13106</v>
       </c>
       <c r="B243" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C243" t="n">
         <v>13</v>
       </c>
       <c r="D243" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E243" t="n">
         <v>206792</v>
       </c>
       <c r="F243" t="n">
-        <v>162</v>
+        <v>1700</v>
       </c>
       <c r="G243" t="n">
         <v>483286.274509804</v>
@@ -59670,19 +59664,19 @@
         <v>13107</v>
       </c>
       <c r="B244" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C244" t="n">
         <v>13</v>
       </c>
       <c r="D244" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E244" t="n">
         <v>112528</v>
       </c>
       <c r="F244" t="n">
-        <v>77</v>
+        <v>840</v>
       </c>
       <c r="G244" t="n">
         <v>363853.146853147</v>
@@ -59909,19 +59903,19 @@
         <v>13108</v>
       </c>
       <c r="B245" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C245" t="n">
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E245" t="n">
         <v>142065</v>
       </c>
       <c r="F245" t="n">
-        <v>196</v>
+        <v>1984</v>
       </c>
       <c r="G245" t="n">
         <v>418819.334975369</v>
@@ -60148,19 +60142,19 @@
         <v>13109</v>
       </c>
       <c r="B246" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C246" t="n">
         <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E246" t="n">
         <v>100434</v>
       </c>
       <c r="F246" t="n">
-        <v>73</v>
+        <v>719</v>
       </c>
       <c r="G246" t="n">
         <v>556936.305732484</v>
@@ -60387,19 +60381,19 @@
         <v>13110</v>
       </c>
       <c r="B247" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C247" t="n">
         <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E247" t="n">
         <v>402433</v>
       </c>
       <c r="F247" t="n">
-        <v>282</v>
+        <v>3256</v>
       </c>
       <c r="G247" t="n">
         <v>535892.631578947</v>
@@ -60626,19 +60620,19 @@
         <v>13111</v>
       </c>
       <c r="B248" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C248" t="n">
         <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E248" t="n">
         <v>122557</v>
       </c>
       <c r="F248" t="n">
-        <v>80</v>
+        <v>1769</v>
       </c>
       <c r="G248" t="n">
         <v>403338.076923077</v>
@@ -60865,19 +60859,19 @@
         <v>13112</v>
       </c>
       <c r="B249" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C249" t="n">
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E249" t="n">
         <v>189335</v>
       </c>
       <c r="F249" t="n">
-        <v>128</v>
+        <v>1804</v>
       </c>
       <c r="G249" t="n">
         <v>350810.810810811</v>
@@ -61104,19 +61098,19 @@
         <v>13113</v>
       </c>
       <c r="B250" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C250" t="n">
         <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E250" t="n">
         <v>100252</v>
       </c>
       <c r="F250" t="n">
-        <v>65</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1103269.03553299</v>
@@ -61343,19 +61337,19 @@
         <v>13114</v>
       </c>
       <c r="B251" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C251" t="n">
         <v>13</v>
       </c>
       <c r="D251" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E251" t="n">
         <v>330759</v>
       </c>
       <c r="F251" t="n">
-        <v>346</v>
+        <v>1765</v>
       </c>
       <c r="G251" t="n">
         <v>1573727.68450704</v>
@@ -61582,19 +61576,19 @@
         <v>13115</v>
       </c>
       <c r="B252" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C252" t="n">
         <v>13</v>
       </c>
       <c r="D252" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E252" t="n">
         <v>124076</v>
       </c>
       <c r="F252" t="n">
-        <v>170</v>
+        <v>892</v>
       </c>
       <c r="G252" t="n">
         <v>838049.467105263</v>
@@ -61821,19 +61815,19 @@
         <v>13116</v>
       </c>
       <c r="B253" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C253" t="n">
         <v>13</v>
       </c>
       <c r="D253" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E253" t="n">
         <v>103865</v>
       </c>
       <c r="F253" t="n">
-        <v>80</v>
+        <v>895</v>
       </c>
       <c r="G253" t="n">
         <v>343453.216374269</v>
@@ -62060,19 +62054,19 @@
         <v>13117</v>
       </c>
       <c r="B254" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C254" t="n">
         <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E254" t="n">
         <v>104403</v>
       </c>
       <c r="F254" t="n">
-        <v>88</v>
+        <v>721</v>
       </c>
       <c r="G254" t="n">
         <v>379928.712871287</v>
@@ -62299,19 +62293,19 @@
         <v>13118</v>
       </c>
       <c r="B255" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C255" t="n">
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E255" t="n">
         <v>134635</v>
       </c>
       <c r="F255" t="n">
-        <v>89</v>
+        <v>1157</v>
       </c>
       <c r="G255" t="n">
         <v>455184.854368932</v>
@@ -62538,19 +62532,19 @@
         <v>13119</v>
       </c>
       <c r="B256" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C256" t="n">
         <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E256" t="n">
         <v>578605</v>
       </c>
       <c r="F256" t="n">
-        <v>364</v>
+        <v>2537</v>
       </c>
       <c r="G256" t="n">
         <v>512675.130034522</v>
@@ -62777,19 +62771,19 @@
         <v>13120</v>
       </c>
       <c r="B257" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C257" t="n">
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E257" t="n">
         <v>250192</v>
       </c>
       <c r="F257" t="n">
-        <v>269</v>
+        <v>1315</v>
       </c>
       <c r="G257" t="n">
         <v>1173297.23923445</v>
@@ -63016,19 +63010,19 @@
         <v>13121</v>
       </c>
       <c r="B258" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C258" t="n">
         <v>13</v>
       </c>
       <c r="D258" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E258" t="n">
         <v>107803</v>
       </c>
       <c r="F258" t="n">
-        <v>109</v>
+        <v>994</v>
       </c>
       <c r="G258" t="n">
         <v>394366.883116883</v>
@@ -63255,19 +63249,19 @@
         <v>13122</v>
       </c>
       <c r="B259" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C259" t="n">
         <v>13</v>
       </c>
       <c r="D259" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E259" t="n">
         <v>266798</v>
       </c>
       <c r="F259" t="n">
-        <v>209</v>
+        <v>2878</v>
       </c>
       <c r="G259" t="n">
         <v>596201.875</v>
@@ -63494,19 +63488,19 @@
         <v>13123</v>
       </c>
       <c r="B260" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C260" t="n">
         <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E260" t="n">
         <v>157749</v>
       </c>
       <c r="F260" t="n">
-        <v>196</v>
+        <v>846</v>
       </c>
       <c r="G260" t="n">
         <v>1379026.87240664</v>
@@ -63733,19 +63727,19 @@
         <v>13124</v>
       </c>
       <c r="B261" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C261" t="n">
         <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E261" t="n">
         <v>253139</v>
       </c>
       <c r="F261" t="n">
-        <v>137</v>
+        <v>1376</v>
       </c>
       <c r="G261" t="n">
         <v>414758.064516129</v>
@@ -63972,19 +63966,19 @@
         <v>13125</v>
       </c>
       <c r="B262" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C262" t="n">
         <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E262" t="n">
         <v>254694</v>
       </c>
       <c r="F262" t="n">
-        <v>164</v>
+        <v>1968</v>
       </c>
       <c r="G262" t="n">
         <v>433258.741258741</v>
@@ -64211,19 +64205,19 @@
         <v>13126</v>
       </c>
       <c r="B263" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C263" t="n">
         <v>13</v>
       </c>
       <c r="D263" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E263" t="n">
         <v>136368</v>
       </c>
       <c r="F263" t="n">
-        <v>172</v>
+        <v>1036</v>
       </c>
       <c r="G263" t="n">
         <v>419596.93877551</v>
@@ -64450,19 +64444,19 @@
         <v>13127</v>
       </c>
       <c r="B264" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C264" t="n">
         <v>13</v>
       </c>
       <c r="D264" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E264" t="n">
         <v>190075</v>
       </c>
       <c r="F264" t="n">
-        <v>174</v>
+        <v>2560</v>
       </c>
       <c r="G264" t="n">
         <v>454634.482758621</v>
@@ -64689,19 +64683,19 @@
         <v>13128</v>
       </c>
       <c r="B265" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C265" t="n">
         <v>13</v>
       </c>
       <c r="D265" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E265" t="n">
         <v>160847</v>
       </c>
       <c r="F265" t="n">
-        <v>107</v>
+        <v>1129</v>
       </c>
       <c r="G265" t="n">
         <v>384561.06870229</v>
@@ -64928,19 +64922,19 @@
         <v>13129</v>
       </c>
       <c r="B266" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C266" t="n">
         <v>13</v>
       </c>
       <c r="D266" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E266" t="n">
         <v>103485</v>
       </c>
       <c r="F266" t="n">
-        <v>118</v>
+        <v>1427</v>
       </c>
       <c r="G266" t="n">
         <v>398950.738916256</v>
@@ -65167,19 +65161,19 @@
         <v>13130</v>
       </c>
       <c r="B267" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C267" t="n">
         <v>13</v>
       </c>
       <c r="D267" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E267" t="n">
         <v>133059</v>
       </c>
       <c r="F267" t="n">
-        <v>152</v>
+        <v>1205</v>
       </c>
       <c r="G267" t="n">
         <v>685765.513812155</v>
@@ -65406,19 +65400,19 @@
         <v>13131</v>
       </c>
       <c r="B268" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C268" t="n">
         <v>13</v>
       </c>
       <c r="D268" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E268" t="n">
         <v>86510</v>
       </c>
       <c r="F268" t="n">
-        <v>66</v>
+        <v>1329</v>
       </c>
       <c r="G268" t="n">
         <v>372321.794871795</v>
@@ -65645,19 +65639,19 @@
         <v>13132</v>
       </c>
       <c r="B269" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C269" t="n">
         <v>13</v>
       </c>
       <c r="D269" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E269" t="n">
         <v>96774</v>
       </c>
       <c r="F269" t="n">
-        <v>133</v>
+        <v>569</v>
       </c>
       <c r="G269" t="n">
         <v>1822152.17391304</v>
@@ -65884,19 +65878,19 @@
         <v>13201</v>
       </c>
       <c r="B270" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C270" t="n">
         <v>13</v>
       </c>
       <c r="D270" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E270" t="n">
         <v>645909</v>
       </c>
       <c r="F270" t="n">
-        <v>688</v>
+        <v>4495</v>
       </c>
       <c r="G270" t="n">
         <v>433390.597204574</v>
@@ -66123,19 +66117,19 @@
         <v>13202</v>
       </c>
       <c r="B271" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C271" t="n">
         <v>13</v>
       </c>
       <c r="D271" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E271" t="n">
         <v>30433</v>
       </c>
       <c r="F271" t="n">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="G271" t="n">
         <v>822442.62295082</v>
@@ -66362,19 +66356,19 @@
         <v>13203</v>
       </c>
       <c r="B272" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C272" t="n">
         <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E272" t="n">
         <v>18644</v>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="G272" t="n">
         <v>473293.333333333</v>
@@ -66601,19 +66595,19 @@
         <v>13301</v>
       </c>
       <c r="B273" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C273" t="n">
         <v>13</v>
       </c>
       <c r="D273" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E273" t="n">
         <v>180353</v>
       </c>
       <c r="F273" t="n">
-        <v>95</v>
+        <v>999</v>
       </c>
       <c r="G273" t="n">
         <v>436847.328244275</v>
@@ -66840,19 +66834,19 @@
         <v>13302</v>
       </c>
       <c r="B274" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C274" t="n">
         <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E274" t="n">
         <v>126898</v>
       </c>
       <c r="F274" t="n">
-        <v>58</v>
+        <v>660</v>
       </c>
       <c r="G274" t="n">
         <v>508983.53909465</v>
@@ -67079,19 +67073,19 @@
         <v>13303</v>
       </c>
       <c r="B275" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C275" t="n">
         <v>13</v>
       </c>
       <c r="D275" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E275" t="n">
         <v>21477</v>
       </c>
       <c r="F275" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G275" t="n">
         <v>412131.147540984</v>
@@ -67318,19 +67312,19 @@
         <v>13401</v>
       </c>
       <c r="B276" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C276" t="n">
         <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E276" t="n">
         <v>334836</v>
       </c>
       <c r="F276" t="n">
-        <v>318</v>
+        <v>2116</v>
       </c>
       <c r="G276" t="n">
         <v>416448.421052632</v>
@@ -67557,19 +67551,19 @@
         <v>13402</v>
       </c>
       <c r="B277" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C277" t="n">
         <v>13</v>
       </c>
       <c r="D277" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E277" t="n">
         <v>109641</v>
       </c>
       <c r="F277" t="n">
-        <v>53</v>
+        <v>432</v>
       </c>
       <c r="G277" t="n">
         <v>386000</v>
@@ -67796,19 +67790,19 @@
         <v>13403</v>
       </c>
       <c r="B278" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C278" t="n">
         <v>13</v>
       </c>
       <c r="D278" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E278" t="n">
         <v>28525</v>
       </c>
       <c r="F278" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="G278" t="n">
         <v>414674.796747967</v>
@@ -68035,19 +68029,19 @@
         <v>13404</v>
       </c>
       <c r="B279" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C279" t="n">
         <v>13</v>
       </c>
       <c r="D279" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E279" t="n">
         <v>82766</v>
       </c>
       <c r="F279" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="G279" t="n">
         <v>451713.333333333</v>
@@ -68274,19 +68268,19 @@
         <v>13501</v>
       </c>
       <c r="B280" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C280" t="n">
         <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E280" t="n">
         <v>141612</v>
       </c>
       <c r="F280" t="n">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="G280" t="n">
         <v>367039.402366864</v>
@@ -68513,19 +68507,19 @@
         <v>13502</v>
       </c>
       <c r="B281" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C281" t="n">
         <v>13</v>
       </c>
       <c r="D281" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E281" t="n">
         <v>7405</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G281" t="n">
         <v>427074.468085106</v>
@@ -68752,19 +68746,19 @@
         <v>13503</v>
       </c>
       <c r="B282" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C282" t="n">
         <v>13</v>
       </c>
       <c r="D282" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E282" t="n">
         <v>36430</v>
       </c>
       <c r="F282" t="n">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="G282" t="n">
         <v>356534.88372093</v>
@@ -68991,19 +68985,19 @@
         <v>13504</v>
       </c>
       <c r="B283" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C283" t="n">
         <v>13</v>
       </c>
       <c r="D283" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E283" t="n">
         <v>14926</v>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G283" t="n">
         <v>315592.592592593</v>
@@ -69230,19 +69224,19 @@
         <v>13505</v>
       </c>
       <c r="B284" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C284" t="n">
         <v>13</v>
       </c>
       <c r="D284" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E284" t="n">
         <v>11953</v>
       </c>
       <c r="F284" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G284" t="n">
         <v>270000</v>
@@ -69469,19 +69463,19 @@
         <v>13601</v>
       </c>
       <c r="B285" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C285" t="n">
         <v>13</v>
       </c>
       <c r="D285" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E285" t="n">
         <v>81838</v>
       </c>
       <c r="F285" t="n">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="G285" t="n">
         <v>539085.431192661</v>
@@ -69708,19 +69702,19 @@
         <v>13602</v>
       </c>
       <c r="B286" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C286" t="n">
         <v>13</v>
       </c>
       <c r="D286" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E286" t="n">
         <v>40014</v>
       </c>
       <c r="F286" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G286" t="n">
         <v>317540.816326531</v>
@@ -69947,19 +69941,19 @@
         <v>13603</v>
       </c>
       <c r="B287" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C287" t="n">
         <v>13</v>
       </c>
       <c r="D287" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E287" t="n">
         <v>40171</v>
       </c>
       <c r="F287" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G287" t="n">
         <v>285428.571428571</v>
@@ -70186,19 +70180,19 @@
         <v>13604</v>
       </c>
       <c r="B288" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C288" t="n">
         <v>13</v>
       </c>
       <c r="D288" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E288" t="n">
         <v>74188</v>
       </c>
       <c r="F288" t="n">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="G288" t="n">
         <v>551586.516853933</v>
@@ -70425,19 +70419,19 @@
         <v>13605</v>
       </c>
       <c r="B289" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C289" t="n">
         <v>13</v>
       </c>
       <c r="D289" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E289" t="n">
         <v>101058</v>
       </c>
       <c r="F289" t="n">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G289" t="n">
         <v>424154.929577465</v>
@@ -70664,19 +70658,19 @@
         <v>14101</v>
       </c>
       <c r="B290" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C290" t="n">
         <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E290" t="n">
         <v>176774</v>
       </c>
       <c r="F290" t="n">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="G290" t="n">
         <v>472805.359430605</v>
@@ -70903,19 +70897,19 @@
         <v>14102</v>
       </c>
       <c r="B291" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C291" t="n">
         <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E291" t="n">
         <v>5447</v>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G291" t="n">
         <v>338814.814814815</v>
@@ -71142,19 +71136,19 @@
         <v>14103</v>
       </c>
       <c r="B292" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C292" t="n">
         <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E292" t="n">
         <v>17652</v>
       </c>
       <c r="F292" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G292" t="n">
         <v>358197.674418605</v>
@@ -71381,19 +71375,19 @@
         <v>14104</v>
       </c>
       <c r="B293" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C293" t="n">
         <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E293" t="n">
         <v>20518</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G293" t="n">
         <v>363571.428571429</v>
@@ -71620,19 +71614,19 @@
         <v>14105</v>
       </c>
       <c r="B294" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C294" t="n">
         <v>14</v>
       </c>
       <c r="D294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E294" t="n">
         <v>7389</v>
       </c>
       <c r="F294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G294" t="n">
         <v>398267.605633803</v>
@@ -71859,19 +71853,19 @@
         <v>14106</v>
       </c>
       <c r="B295" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C295" t="n">
         <v>14</v>
       </c>
       <c r="D295" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E295" t="n">
         <v>23250</v>
       </c>
       <c r="F295" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G295" t="n">
         <v>349443.85026738</v>
@@ -72098,19 +72092,19 @@
         <v>14107</v>
       </c>
       <c r="B296" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C296" t="n">
         <v>14</v>
       </c>
       <c r="D296" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E296" t="n">
         <v>20798</v>
       </c>
       <c r="F296" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G296" t="n">
         <v>301182.038095238</v>
@@ -72337,19 +72331,19 @@
         <v>14108</v>
       </c>
       <c r="B297" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C297" t="n">
         <v>14</v>
       </c>
       <c r="D297" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E297" t="n">
         <v>35991</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G297" t="n">
         <v>337841.758823529</v>
@@ -72576,19 +72570,19 @@
         <v>14201</v>
       </c>
       <c r="B298" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C298" t="n">
         <v>14</v>
       </c>
       <c r="D298" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E298" t="n">
         <v>39538</v>
       </c>
       <c r="F298" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G298" t="n">
         <v>373341.232227488</v>
@@ -72815,19 +72809,19 @@
         <v>14202</v>
       </c>
       <c r="B299" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C299" t="n">
         <v>14</v>
       </c>
       <c r="D299" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E299" t="n">
         <v>15261</v>
       </c>
       <c r="F299" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G299" t="n">
         <v>313643.67816092</v>
@@ -73054,13 +73048,13 @@
         <v>14203</v>
       </c>
       <c r="B300" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C300" t="n">
         <v>14</v>
       </c>
       <c r="D300" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E300" t="n">
         <v>10292</v>
@@ -73293,19 +73287,19 @@
         <v>14204</v>
       </c>
       <c r="B301" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C301" t="n">
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E301" t="n">
         <v>32925</v>
       </c>
       <c r="F301" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G301" t="n">
         <v>344921.824561403</v>
@@ -73532,19 +73526,19 @@
         <v>15101</v>
       </c>
       <c r="B302" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C302" t="n">
         <v>15</v>
       </c>
       <c r="D302" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E302" t="n">
         <v>247552</v>
       </c>
       <c r="F302" t="n">
-        <v>224</v>
+        <v>525</v>
       </c>
       <c r="G302" t="n">
         <v>527568.186170213</v>
@@ -73771,13 +73765,13 @@
         <v>15102</v>
       </c>
       <c r="B303" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C303" t="n">
         <v>15</v>
       </c>
       <c r="D303" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E303" t="n">
         <v>1233</v>
@@ -74010,13 +74004,13 @@
         <v>15201</v>
       </c>
       <c r="B304" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C304" t="n">
         <v>15</v>
       </c>
       <c r="D304" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E304" t="n">
         <v>2515</v>
@@ -74249,19 +74243,19 @@
         <v>16101</v>
       </c>
       <c r="B305" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C305" t="n">
         <v>16</v>
       </c>
       <c r="D305" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E305" t="n">
         <v>198624</v>
       </c>
       <c r="F305" t="n">
-        <v>411</v>
+        <v>550</v>
       </c>
       <c r="G305" t="n">
         <v>419594.046712803</v>
@@ -74488,19 +74482,19 @@
         <v>16102</v>
       </c>
       <c r="B306" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C306" t="n">
         <v>16</v>
       </c>
       <c r="D306" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E306" t="n">
         <v>22607</v>
       </c>
       <c r="F306" t="n">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="G306" t="n">
         <v>266012.195121951</v>
@@ -74727,19 +74721,19 @@
         <v>16103</v>
       </c>
       <c r="B307" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C307" t="n">
         <v>16</v>
       </c>
       <c r="D307" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E307" t="n">
         <v>33827</v>
       </c>
       <c r="F307" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G307" t="n">
         <v>374086.098360656</v>
@@ -74966,19 +74960,19 @@
         <v>16104</v>
       </c>
       <c r="B308" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C308" t="n">
         <v>16</v>
       </c>
       <c r="D308" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E308" t="n">
         <v>12334</v>
       </c>
       <c r="F308" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G308" t="n">
         <v>285818.181818182</v>
@@ -75205,19 +75199,19 @@
         <v>16105</v>
       </c>
       <c r="B309" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C309" t="n">
         <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E309" t="n">
         <v>8639</v>
       </c>
       <c r="F309" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G309" t="n">
         <v>300093.333333333</v>
@@ -75444,19 +75438,19 @@
         <v>16106</v>
       </c>
       <c r="B310" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C310" t="n">
         <v>16</v>
       </c>
       <c r="D310" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E310" t="n">
         <v>11880</v>
       </c>
       <c r="F310" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G310" t="n">
         <v>227968.253968254</v>
@@ -75683,19 +75677,19 @@
         <v>16107</v>
       </c>
       <c r="B311" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C311" t="n">
         <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E311" t="n">
         <v>18777</v>
       </c>
       <c r="F311" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G311" t="n">
         <v>246564.98630137</v>
@@ -75922,19 +75916,19 @@
         <v>16108</v>
       </c>
       <c r="B312" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C312" t="n">
         <v>16</v>
       </c>
       <c r="D312" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E312" t="n">
         <v>16624</v>
       </c>
       <c r="F312" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G312" t="n">
         <v>266991.111111111</v>
@@ -76161,19 +76155,19 @@
         <v>16109</v>
       </c>
       <c r="B313" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C313" t="n">
         <v>16</v>
       </c>
       <c r="D313" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E313" t="n">
         <v>18596</v>
       </c>
       <c r="F313" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G313" t="n">
         <v>374030.769230769</v>
@@ -76400,19 +76394,19 @@
         <v>16201</v>
       </c>
       <c r="B314" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C314" t="n">
         <v>16</v>
       </c>
       <c r="D314" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E314" t="n">
         <v>12192</v>
       </c>
       <c r="F314" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G314" t="n">
         <v>308206.639344262</v>
@@ -76639,13 +76633,13 @@
         <v>16202</v>
       </c>
       <c r="B315" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C315" t="n">
         <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E315" t="n">
         <v>5275</v>
@@ -76878,19 +76872,19 @@
         <v>16203</v>
       </c>
       <c r="B316" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C316" t="n">
         <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E316" t="n">
         <v>16845</v>
       </c>
       <c r="F316" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G316" t="n">
         <v>403898.666666667</v>
@@ -77117,19 +77111,19 @@
         <v>16204</v>
       </c>
       <c r="B317" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C317" t="n">
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E317" t="n">
         <v>5414</v>
       </c>
       <c r="F317" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G317" t="n">
         <v>327864.242424242</v>
@@ -77356,19 +77350,19 @@
         <v>16205</v>
       </c>
       <c r="B318" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C318" t="n">
         <v>16</v>
       </c>
       <c r="D318" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E318" t="n">
         <v>4940</v>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G318" t="n">
         <v>256027.777777778</v>
@@ -77595,19 +77589,19 @@
         <v>16206</v>
       </c>
       <c r="B319" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C319" t="n">
         <v>16</v>
       </c>
       <c r="D319" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E319" t="n">
         <v>6261</v>
       </c>
       <c r="F319" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G319" t="n">
         <v>396923.076923077</v>
@@ -77834,13 +77828,13 @@
         <v>16207</v>
       </c>
       <c r="B320" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C320" t="n">
         <v>16</v>
       </c>
       <c r="D320" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E320" t="n">
         <v>5696</v>
@@ -78073,19 +78067,19 @@
         <v>16301</v>
       </c>
       <c r="B321" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C321" t="n">
         <v>16</v>
       </c>
       <c r="D321" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E321" t="n">
         <v>56252</v>
       </c>
       <c r="F321" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G321" t="n">
         <v>348522.672</v>
@@ -78312,19 +78306,19 @@
         <v>16302</v>
       </c>
       <c r="B322" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C322" t="n">
         <v>16</v>
       </c>
       <c r="D322" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E322" t="n">
         <v>28375</v>
       </c>
       <c r="F322" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G322" t="n">
         <v>282392.156862745</v>
@@ -78551,19 +78545,19 @@
         <v>16303</v>
       </c>
       <c r="B323" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C323" t="n">
         <v>16</v>
       </c>
       <c r="D323" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E323" t="n">
         <v>11567</v>
       </c>
       <c r="F323" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G323" t="n">
         <v>316544.407894737</v>
@@ -78790,19 +78784,19 @@
         <v>16304</v>
       </c>
       <c r="B324" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C324" t="n">
         <v>16</v>
       </c>
       <c r="D324" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E324" t="n">
         <v>4654</v>
       </c>
       <c r="F324" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G324" t="n">
         <v>282573.333333333</v>
@@ -79029,19 +79023,19 @@
         <v>16305</v>
       </c>
       <c r="B325" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C325" t="n">
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E325" t="n">
         <v>12172</v>
       </c>
       <c r="F325" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G325" t="n">
         <v>290752.136752137</v>
